--- a/processed_file.xlsx
+++ b/processed_file.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I375"/>
+  <dimension ref="A1:J375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -482,6 +487,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -511,6 +521,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,6 +557,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -573,6 +593,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,6 +629,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,6 +665,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -666,6 +701,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -697,6 +737,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,6 +773,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -759,6 +809,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -790,6 +845,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -821,6 +881,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -852,6 +917,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -883,6 +953,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -914,6 +989,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -945,6 +1025,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,6 +1061,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1007,6 +1097,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1038,6 +1133,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1069,6 +1169,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1100,6 +1205,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1131,6 +1241,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1162,6 +1277,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1193,6 +1313,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1224,6 +1349,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1255,6 +1385,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1286,6 +1421,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1317,6 +1457,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1348,6 +1493,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1379,6 +1529,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1410,6 +1565,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1441,6 +1601,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1472,6 +1637,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1503,6 +1673,11 @@
           <t>D</t>
         </is>
       </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1534,6 +1709,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1565,6 +1745,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1596,6 +1781,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1627,6 +1817,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1658,6 +1853,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1689,6 +1889,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1720,6 +1925,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1751,6 +1961,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1782,6 +1997,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1813,6 +2033,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1844,6 +2069,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1875,6 +2105,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1906,6 +2141,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1937,6 +2177,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1968,6 +2213,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1999,6 +2249,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2030,6 +2285,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2061,6 +2321,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2092,6 +2357,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2123,6 +2393,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2154,6 +2429,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2185,6 +2465,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2216,6 +2501,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2245,6 +2535,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2274,6 +2569,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2303,6 +2603,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2332,6 +2637,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2363,6 +2673,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2394,6 +2709,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2425,6 +2745,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2456,6 +2781,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2487,6 +2817,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2518,6 +2853,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2549,6 +2889,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2580,6 +2925,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2611,6 +2961,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2642,6 +2997,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2673,6 +3033,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2704,6 +3069,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2735,6 +3105,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2766,6 +3141,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2797,6 +3177,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2828,6 +3213,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2859,6 +3249,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2890,6 +3285,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2921,6 +3321,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2952,6 +3357,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2983,6 +3393,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3014,6 +3429,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3045,6 +3465,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3076,6 +3501,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3107,6 +3537,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3138,6 +3573,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3169,6 +3609,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3200,6 +3645,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3231,6 +3681,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3262,6 +3717,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3293,6 +3753,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3324,6 +3789,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3355,6 +3825,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3386,6 +3861,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3417,6 +3897,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3448,6 +3933,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3479,6 +3969,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3510,6 +4005,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3541,6 +4041,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3572,6 +4077,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3603,6 +4113,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3634,6 +4149,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3665,6 +4185,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3696,6 +4221,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3727,6 +4257,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3758,6 +4293,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3789,6 +4329,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3820,6 +4365,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3851,6 +4401,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3882,6 +4437,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3913,6 +4473,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3944,6 +4509,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3975,6 +4545,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4006,6 +4581,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4037,6 +4617,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4068,6 +4653,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4099,6 +4689,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4130,6 +4725,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4161,6 +4761,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4192,6 +4797,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4223,6 +4833,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4254,6 +4869,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4285,6 +4905,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4316,6 +4941,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4347,6 +4977,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4378,6 +5013,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4409,6 +5049,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4440,6 +5085,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4471,6 +5121,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4502,6 +5157,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4533,6 +5193,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4564,6 +5229,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4595,6 +5265,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4626,6 +5301,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4657,6 +5337,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4688,6 +5373,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4719,6 +5409,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4750,6 +5445,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4781,6 +5481,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4812,6 +5517,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4843,6 +5553,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4874,6 +5589,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4905,6 +5625,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4936,6 +5661,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4967,6 +5697,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4998,6 +5733,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5029,6 +5769,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5060,6 +5805,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5091,6 +5841,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5122,6 +5877,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5153,6 +5913,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5184,6 +5949,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5215,6 +5985,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5246,6 +6021,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5275,6 +6055,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5304,6 +6089,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5335,6 +6125,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5366,6 +6161,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5397,6 +6197,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5428,6 +6233,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5459,6 +6269,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5490,6 +6305,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5521,6 +6341,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5552,6 +6377,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5583,6 +6413,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5614,6 +6449,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5645,6 +6485,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5676,6 +6521,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -5707,6 +6557,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -5738,6 +6593,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -5769,6 +6629,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -5800,6 +6665,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -5831,6 +6701,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -5862,6 +6737,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -5893,6 +6773,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -5924,6 +6809,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -5955,6 +6845,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -5986,6 +6881,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6017,6 +6917,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6048,6 +6953,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6079,6 +6989,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6110,6 +7025,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6141,6 +7061,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6172,6 +7097,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6203,6 +7133,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6234,6 +7169,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6265,6 +7205,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6296,6 +7241,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6327,6 +7277,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6358,6 +7313,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6389,6 +7349,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6420,6 +7385,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6451,6 +7421,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6482,6 +7457,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6513,6 +7493,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6544,6 +7529,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6573,6 +7563,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6602,6 +7597,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -6633,6 +7633,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -6664,6 +7669,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -6695,6 +7705,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -6726,6 +7741,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -6757,6 +7777,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -6788,6 +7813,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -6819,6 +7849,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -6850,6 +7885,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -6881,6 +7921,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -6912,6 +7957,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -6943,6 +7993,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -6974,6 +8029,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7005,6 +8065,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7036,6 +8101,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7067,6 +8137,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7096,6 +8171,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7127,6 +8207,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7158,6 +8243,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7189,6 +8279,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7220,6 +8315,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7251,6 +8351,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7282,6 +8387,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7313,6 +8423,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7344,6 +8459,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7375,6 +8495,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7406,6 +8531,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7437,6 +8567,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7468,6 +8603,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7499,6 +8639,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7530,6 +8675,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -7561,6 +8711,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -7592,6 +8747,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -7623,6 +8783,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -7654,6 +8819,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -7685,6 +8855,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -7716,6 +8891,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -7747,6 +8927,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -7778,6 +8963,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -7809,6 +8999,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -7840,6 +9035,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -7871,6 +9071,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -7902,6 +9107,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -7933,6 +9143,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -7964,6 +9179,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -7995,6 +9215,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8026,6 +9251,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8057,6 +9287,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8086,6 +9321,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8115,6 +9355,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8144,6 +9389,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8173,6 +9423,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8202,6 +9457,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8231,6 +9491,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8260,6 +9525,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8289,6 +9559,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8318,6 +9593,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8347,6 +9627,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8376,6 +9661,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8405,6 +9695,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J259" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8434,6 +9729,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8463,6 +9763,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -8492,6 +9797,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -8521,6 +9831,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -8550,6 +9865,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -8579,6 +9899,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -8608,6 +9933,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -8637,6 +9967,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -8666,6 +10001,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -8695,6 +10035,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -8724,6 +10069,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -8753,6 +10103,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -8782,6 +10137,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -8811,6 +10171,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -8840,6 +10205,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -8869,6 +10239,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -8898,6 +10273,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -8927,6 +10307,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -8956,6 +10341,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -8985,6 +10375,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9014,6 +10409,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9043,6 +10443,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9072,6 +10477,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9101,6 +10511,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9130,6 +10545,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9159,6 +10579,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9188,6 +10613,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9217,6 +10647,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9246,6 +10681,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9275,6 +10715,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9304,6 +10749,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9333,6 +10783,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -9362,6 +10817,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J292" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -9391,6 +10851,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -9420,6 +10885,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J294" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -9449,6 +10919,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J295" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -9478,6 +10953,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J296" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -9507,6 +10987,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J297" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -9536,6 +11021,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J298" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -9565,6 +11055,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J299" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -9594,6 +11089,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J300" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -9623,6 +11123,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -9652,6 +11157,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J302" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -9681,6 +11191,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J303" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -9710,6 +11225,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J304" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -9739,6 +11259,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J305" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -9768,6 +11293,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J306" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -9797,6 +11327,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J307" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -9826,6 +11361,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J308" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -9855,6 +11395,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J309" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -9884,6 +11429,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J310" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -9913,6 +11463,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J311" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -9942,6 +11497,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J312" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -9971,6 +11531,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J313" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10000,6 +11565,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J314" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10029,6 +11599,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J315" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10058,6 +11633,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J316" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10087,6 +11667,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J317" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10116,6 +11701,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J318" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10145,6 +11735,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J319" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10174,6 +11769,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J320" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10203,6 +11803,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -10232,6 +11837,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -10261,6 +11871,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -10290,6 +11905,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -10319,6 +11939,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -10348,6 +11973,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -10377,6 +12007,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -10406,6 +12041,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -10435,6 +12075,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J329" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -10464,6 +12109,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J330" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -10493,6 +12143,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J331" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -10522,6 +12177,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J332" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -10551,6 +12211,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J333" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -10580,6 +12245,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J334" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -10609,6 +12279,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J335" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -10638,6 +12313,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J336" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -10667,6 +12347,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J337" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -10696,6 +12381,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J338" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -10725,6 +12415,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -10754,6 +12449,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -10783,6 +12483,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -10812,6 +12517,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -10841,6 +12551,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -10870,6 +12585,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -10899,6 +12619,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -10928,6 +12653,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J346" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -10957,6 +12687,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J347" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -10986,6 +12721,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J348" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -11015,6 +12755,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -11044,6 +12789,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -11073,6 +12823,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -11102,6 +12857,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J352" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -11131,6 +12891,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J353" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -11160,6 +12925,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J354" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -11189,6 +12959,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J355" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -11218,6 +12993,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J356" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -11247,6 +13027,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J357" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -11276,6 +13061,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J358" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -11305,6 +13095,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J359" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -11334,6 +13129,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J360" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -11363,6 +13163,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J361" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -11392,6 +13197,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J362" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -11421,6 +13231,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J363" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -11450,6 +13265,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J364" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -11479,6 +13299,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J365" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -11508,6 +13333,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J366" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -11537,6 +13367,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J367" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -11566,6 +13401,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -11595,6 +13435,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -11624,6 +13469,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -11653,6 +13503,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -11682,6 +13537,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -11711,6 +13571,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -11740,6 +13605,11 @@
           <t>C</t>
         </is>
       </c>
+      <c r="J374" t="inlineStr">
+        <is>
+          <t>30991</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -11767,6 +13637,11 @@
       <c r="I375" t="inlineStr">
         <is>
           <t>C</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>30991</t>
         </is>
       </c>
     </row>

--- a/processed_file.xlsx
+++ b/processed_file.xlsx
@@ -14,43 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="81">
-  <si>
-    <t>2024-11-01</t>
-  </si>
-  <si>
-    <t>2024-11-05</t>
-  </si>
-  <si>
-    <t>2024-11-06</t>
-  </si>
-  <si>
-    <t>2024-11-07</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>2024-11-11</t>
-  </si>
-  <si>
-    <t>2024-11-12</t>
-  </si>
-  <si>
-    <t>2024-11-13</t>
-  </si>
-  <si>
-    <t>2024-11-15</t>
-  </si>
-  <si>
-    <t>2024-11-18</t>
-  </si>
-  <si>
-    <t>2024-11-19</t>
-  </si>
-  <si>
-    <t>2024-11-22</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="79">
   <si>
     <t>2024-11-25</t>
   </si>
@@ -58,205 +22,235 @@
     <t>2024-11-26</t>
   </si>
   <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3043178 C-04231 2 ISABELA CHEDE CUNHA</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3037877 C-05736 6 EDUARDO ARANTES SOUZA</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3029318 - B-06245 0 ALINE BENTO RADOMINSKI - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3047509 B-6245 ALINE BENTO RADOMINSKI</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3013176 B 1316  MARCOS DE BARROS WINTER</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3031186 C-05760 7 LUIZ FELIPE VILELA FEDALTO - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3039686 C-05760 7 LUIZ FELIPE VILELA FEDALTO - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3047931 B-05160 ISABELA KLOSS KLUPPEL STRO - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3013976 R-3661 3 JESOMIR UBA FILHO</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3040284 - B-04332-7 ELIANE G DE SOUZA BROMBERG - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 2954443 C-01807 1 HELENA REBACK GRAICHEN - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3031062 C-02564-3 GIULIANO MIRO ZILIOTTO - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3039573 C-02564 3 GIULIANO MIRO ZILIOTTO - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3042200 S-04812 6 ALICE LOBO INFANTE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3044964 - B-01049-1 ODUVALDO BESSA JUNIOR - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3024156 C-02092 8 GABRIEL DE SOUZA DREHER</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3024157 C-2092 8 GABRIEL DE SOUZA DREHER</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3048843 B-05042-3 ONILDA CARNEIRO STUNITZ - DUPLICIDA</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 2988448 R-03191-9 EDGARD WEIGERT FILHO - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>N/PGTO. REF. DEVOLUÇÃO D.A. 3045403 C-5736 6 EDUARDO ARANTES SOUZA NANUCH DE GODOY (RENATA GODOY)</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BANCO ITAU 3042952 B- 06071 4 CASSIO CHAMECKI - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3048078 R-01861-5  IRACEMA BETTEGA - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3048239 - B-00461-8 LETICIA ZETOLA PORTES - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3048996 - B-00483-8 MIRABEL LIMA DE OLIVEIRA - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3043140 - B-01092-5 EDUARDA RATTMANN FRAGOSO - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 2927232 - B-01291-7 CARLOS EDUARDO VIANNA - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 2928577 - B-01631-4 REGINA HELENA BRUNI - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3045815 B-01678-1 VALENTIM CLARET SANTOS GON - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3046122 -  B-03457-4 FABIANE PATRICIA E S G VOLAC - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3047814 - B-04843-5 LARA PATRICIA DE CARVALHO - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 2943089 - B-05133-8 VALERIA MEDEIROS SANTIAGO - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3045818 B-05153-7 LUIS MIGUEL JUSTO DA SILVA - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3048223 B-05777-0 MARCELLE CAVALINI SOARES - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3046136 - B-05777-0 ALICIA CAVALINI SOARES - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 2965901 -  B-05915-9 ELISA BEATRIZ DALLEDONE SIQU - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 2970798 -  B-06163-4 CARLOS AFONSO CARMEZIM GO - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 2954626 - C-01842-1 LETICIA ALLAGE SELEME DE CAM - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3043789 - C-02194-2 RICARDO BISCAIA BACELLAR - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3047559 - C-03339-2  MIKAELA SCHIER KAMINSKI - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 2990658 - R-03773-2 WANIA MANTOVANI GUTIERREZ - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 2980516 - S-00642-1 SARAH CARBONAR DE OLIVEIRA - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3022028 -  S-04812-6 ALICE LOBO INFANTE DA C TEIXE - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 2926931 B-01217 3 ANNA BEATRIZ DE LACERDA PIN</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3047541 - S00313 2 VICTORIA SOARES SIMAS</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3049838 B-01631-4 REGINA HELENA BRUNI</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3050256 B-01217 3 ANNA BEATRIZ DE LACERDA PIN</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3049538 R 3191  EDGARD WEIGERT FILHO</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3049224 C 1807  HELENA REBACK GRAICHEN - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3047549 F-34370 0 FELIPE SCHAFRANSKI MARQUES DA</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 2957302 C-02507 2 CARLO MARINO OLSEN GAROFA - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3046288 C-8285 3 HUGO MANUEL PAZ MORALES - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>N/PGTO. REF. DEVOLUÇÃO D.A. 3049016 B-5160 5 ISABELLA KLOSS KLUPPEL STROBEL (THIAGO KLUPPEL STROBEL)</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3042204 B-3339 2 ANDRE LUIZ ARNT RAMOS</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3049171 B-02573 2 MARCELO AMARAL SANTANA - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3051650 B-05506-5 -0 SANDRA RAFAELA MAGALHAES C - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>N/PGTO. REF. DEVOLUÇÃO D.A. 3033542 C-2092 8 GABRIEL DE SOUZA DREHER</t>
-  </si>
-  <si>
-    <t>N/PGTO. REF. DEVOLUÇÃO D.A. 3042659 C-2092 8 GABRIEL DE SOUZA DREHER</t>
-  </si>
-  <si>
-    <t>N/PGTO. REF. DEVOLUÇÃO D.A. 3042660 C-2092 GABRIEL DE SOUZA DREHER</t>
-  </si>
-  <si>
-    <t>N/PGTO. REF. DEVOLUÇÃO D.A. 3033535 B-2781 ADRIANE REIS DE ARAUJO</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3035303 C-04548-1 -0 CRISTIANNE GONZAGA NATAL - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3042194 B-5133 VALERIA MEDEIROS SANTIAGO</t>
-  </si>
-  <si>
-    <t>N/PGTO. D.A. 3042203 B-3674 4 FELIPE DA ROS GASPARIN</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3046309 C-03478-9 -1 DOUGLAS RAMOS VOSGERAU - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3050377 B-02231-2 -0 LUCIANO DE PAULI JORGE - DUPLICIDADE</t>
-  </si>
-  <si>
-    <t>VLR. REC. MENSALIDADES/OUTROS BRADESCO D.A. 3035226 C-03478-9 -2 MARINA ANDRADE VOSGERAU - DUPLICIDADE</t>
+    <t>2024-11-27</t>
+  </si>
+  <si>
+    <t>2024-11-29</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>2024-12-03</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>2024-12-06</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>2025-01-08</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS  NOV/2024 SHOWARE BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 5983 CWB GERADORES LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 2206742  INGRAM MICRO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 1680 ELO SEGURANÇA LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 2207228  INGRAM MICRO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 347796  TECNOFIT TECNOLOGIA E SISTEMAS LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 2024725  CLOUDPAR PART E SER EM TECN DA INFO LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 1092576  DOCUSIGN BRASIL SOLUCOES EM TECNOLOGIA LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 194541  CURITIBA ESTERILIZACAO MAT.MEDICOS LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 301742  TK ELEVADORES BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 27155 TRAJANO NETO E PACIORNIK ADV.ASSOC.</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 27156 TRAJANO NETO E PACIORNIK ADV.ASSOC.</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 300885  TK ELEVADORES BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N.  59111 DORMAKABA BRASIL SOLUCOES DE ACESSO LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 60863  VEGAIT TECNOLOGIA DA INFORMACAO LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 61231 VEGAIT TECNOLOGIA DA INFORMAÇAO LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS NOV/2024 DOCUSIGN BRASIL</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS NOV/2024 DORMAKABA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS NOV/2024 ELO SEGURANÇA LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS NOV/2024 EMED SERVIÇOS MEDICOS</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS NOV/2024 LABORAN ANAL. CLIN. LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS NOV/2024 SENIOR SISTEMAS</t>
+  </si>
+  <si>
+    <t>VLR. TRANSFERIDO DA CONTA 26000 P/ CONTA 29796, REF. PIS/COFINS/CSLL NF N. 2204753 INGRAM MICRO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>VLR. ESTORNO LANÇAMENTO   PROVISÃO NOV/2024 EMED SERVIÇOS MEDICOS</t>
+  </si>
+  <si>
+    <t>VLR. ESTORNO LANÇAMENTO   PROVISÃO NOV/2024 DORMAKABA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N.  2067 LUIZ VOLPATO ARQUITETURA S/S (NOV/2024)</t>
+  </si>
+  <si>
+    <t>VLR. ESTORNO LANÇAMENTO  PROV. PIS/COFINS/CSLL NOV/2024 DOCUSIGN</t>
+  </si>
+  <si>
+    <t>VLR.  AJUSTE PROV. A MENOR PIS/COFINS/CSLL  NF. 2207228  INGRAM MICRO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 1833 PSICCOM SAUDE INTEGRAL LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 270927  PREAMBULO INFORMATICA LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 4097 EXPRESSAPPS INTELIGENCIA DIGITAL LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 5953 MXM SISTEMAS E SERVICOS DE INFORMATICA LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 33193 LABORAN ANALISES CLINICAS LTDA</t>
+  </si>
+  <si>
+    <t>VLR. IRRF RETIDO NF. N. 571  RENATA CASSIM DORNELLAS MALAGOLI</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 2525 MARTINELLI AUDITORES</t>
+  </si>
+  <si>
+    <t>VLR. ESTORNO LANÇAMENTO  1684  ELO SEGURANÇA LTDA (NF VEIO COM DESCONTO)</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 6015 CWB GERADORES LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 801886  ORSEGUPS MONITORAMENTO ELETRONICO LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 2225640  INGRAM MICRO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 481 EMED SERVIÇOS MEDICOS LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 1109885 DOCUSIGN BRASIL SOLUÇOES</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 1027 ANDRADE E REZENDE ENG. PROJETOS EPP</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 2188 EH DESIGN &amp; WAYFINDING LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 2112 LUIZ VOLPATO ARQUITETURA S/S</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 4255 RH MAIS ASSESSORIA DE RECURSOS HUMANOS LTDA</t>
+  </si>
+  <si>
+    <t>N/PGTO. CSLL, COFINS E PIS FATURAMENTO CÓD.5952 MÊS NOV/2024</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 303955  TK ELEVADORES BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS DEZ/2024 PSICCOM SAUDE INTEGRAL (NF 1846)</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. DEZ/2024 PREAMBULO INFORMATICA SA (NF 272863)</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS  DEZ/2024 DORMAKABA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS  DEZ/2024 RH MAIS ASSESSORIA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS  DEZ/2024 ELO SEGURANÇA LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS  DEZ/2024 LABORAN ANAL. CLIN. LTDA- RECREATIVO</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS  DEZ/2024 SENIOR SISTEMAS</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS  DEZ/2024 SHOWARE BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS  DEZ/2024 TECNOFIT</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS  DEZ/2024 TRAJANO NETO &amp; PACIORNIK ADV.ASSOC.</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS  DEZ/2024 VEGAIT TECNOLOGIA DA INFORMAÇÃO</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO REF. DESPESA MÊS  DEZ/2024 CLOUDPAR</t>
+  </si>
+  <si>
+    <t>VLR. CSLL, COFINS, PIS-FATURAMENTO RETIDO NF. N. 2531 MARTINELLI AUDITORES</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>04426</t>
+    <t>29796</t>
   </si>
 </sst>
 </file>
@@ -588,7 +582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,25 +593,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1">
-        <v>5073</v>
+        <v>5421</v>
       </c>
       <c r="E1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1">
-        <v>75</v>
+        <v>266.6</v>
       </c>
       <c r="H1">
-        <v>46660.58</v>
+        <v>5879.3</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -625,25 +619,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>5075</v>
+        <v>5426</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>182.7</v>
+        <v>63.71</v>
       </c>
       <c r="H2">
-        <v>46843.28</v>
+        <v>5943.01</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -651,25 +645,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>5079</v>
+        <v>5426</v>
       </c>
       <c r="E3">
         <v>18</v>
       </c>
       <c r="G3">
-        <v>184.62</v>
+        <v>758.0599999999999</v>
       </c>
       <c r="H3">
-        <v>47027.9</v>
+        <v>6701.07</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -677,51 +671,51 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>5149</v>
+        <v>5454</v>
       </c>
       <c r="E4">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>184.62</v>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1114.61</v>
       </c>
       <c r="H4">
-        <v>46843.28</v>
+        <v>7815.68</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>5356</v>
+        <v>5424</v>
       </c>
       <c r="E5">
-        <v>29</v>
-      </c>
-      <c r="F5">
-        <v>735.48</v>
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>88.79000000000001</v>
       </c>
       <c r="H5">
-        <v>46107.8</v>
+        <v>7904.47</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -729,25 +723,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6">
-        <v>5166</v>
+        <v>5428</v>
       </c>
       <c r="E6">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>136.84</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="H6">
-        <v>46244.64</v>
+        <v>7971.32</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -755,25 +749,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>5166</v>
+        <v>5446</v>
       </c>
       <c r="E7">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>135.64</v>
+        <v>27.9</v>
       </c>
       <c r="H7">
-        <v>46380.28</v>
+        <v>7999.22</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -781,25 +775,25 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>5193</v>
+        <v>5452</v>
       </c>
       <c r="E8">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>201</v>
+        <v>18.18</v>
       </c>
       <c r="H8">
-        <v>46581.28</v>
+        <v>8017.4</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -807,25 +801,25 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>5233</v>
+        <v>5455</v>
       </c>
       <c r="E9">
-        <v>35</v>
-      </c>
-      <c r="F9">
-        <v>363.24</v>
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>25.68</v>
       </c>
       <c r="H9">
-        <v>46218.04</v>
+        <v>8043.08</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -833,25 +827,25 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>5195</v>
+        <v>5478</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>164.55</v>
+        <v>157.65</v>
       </c>
       <c r="H10">
-        <v>46382.59</v>
+        <v>8200.73</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -859,25 +853,25 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>5195</v>
+        <v>5478</v>
       </c>
       <c r="E11">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>734.76</v>
+        <v>102.3</v>
       </c>
       <c r="H11">
-        <v>47117.35</v>
+        <v>8303.030000000001</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -885,25 +879,25 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>5195</v>
+        <v>5481</v>
       </c>
       <c r="E12">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>205.95</v>
+        <v>392.98</v>
       </c>
       <c r="H12">
-        <v>47323.3</v>
+        <v>8696.01</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -911,25 +905,25 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>5195</v>
+        <v>5553</v>
       </c>
       <c r="E13">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G13">
-        <v>203.85</v>
+        <v>13.58</v>
       </c>
       <c r="H13">
-        <v>47527.15</v>
+        <v>8709.59</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -937,441 +931,444 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>5235</v>
+        <v>5553</v>
       </c>
       <c r="E14">
-        <v>47</v>
-      </c>
-      <c r="F14">
-        <v>285.6</v>
+        <v>89</v>
+      </c>
+      <c r="G14">
+        <v>75.05</v>
       </c>
       <c r="H14">
-        <v>47241.55</v>
+        <v>8784.639999999999</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>5241</v>
+        <v>5553</v>
       </c>
       <c r="E15">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="G15">
-        <v>267</v>
+        <v>300.16</v>
       </c>
       <c r="H15">
-        <v>47508.55</v>
+        <v>9084.799999999999</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>5242</v>
+        <v>5553</v>
       </c>
       <c r="E16">
-        <v>30</v>
-      </c>
-      <c r="F16">
-        <v>178</v>
+        <v>116</v>
+      </c>
+      <c r="G16">
+        <v>257.27</v>
       </c>
       <c r="H16">
-        <v>47330.55</v>
+        <v>9342.07</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>5242</v>
+        <v>5619</v>
       </c>
       <c r="E17">
-        <v>52</v>
-      </c>
-      <c r="F17">
-        <v>320</v>
+        <v>7</v>
+      </c>
+      <c r="G17">
+        <v>18.18</v>
       </c>
       <c r="H17">
-        <v>47010.55</v>
+        <v>9360.25</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>5249</v>
+        <v>5619</v>
       </c>
       <c r="E18">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G18">
-        <v>595</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="H18">
-        <v>47605.55</v>
+        <v>9430.15</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>5249</v>
+        <v>5619</v>
       </c>
       <c r="E19">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="G19">
-        <v>371.22</v>
+        <v>148.24</v>
       </c>
       <c r="H19">
-        <v>47976.77</v>
+        <v>9578.389999999999</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>5302</v>
+        <v>5619</v>
       </c>
       <c r="E20">
-        <v>67</v>
-      </c>
-      <c r="F20">
-        <v>182.7</v>
+        <v>18</v>
+      </c>
+      <c r="G20">
+        <v>139.5</v>
       </c>
       <c r="H20">
-        <v>47794.07</v>
+        <v>9717.889999999999</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>5339</v>
+        <v>5619</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G21">
-        <v>714</v>
+        <v>64.18000000000001</v>
       </c>
       <c r="H21">
-        <v>48508.07</v>
+        <v>9782.07</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>5257</v>
+        <v>5619</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G22">
-        <v>170.7</v>
+        <v>225.07</v>
       </c>
       <c r="H22">
-        <v>48678.77</v>
+        <v>10007.14</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>5258</v>
+        <v>5598</v>
       </c>
       <c r="E23">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G23">
-        <v>160</v>
+        <v>30.24</v>
       </c>
       <c r="H23">
-        <v>48838.77</v>
+        <v>10037.38</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>5258</v>
+        <v>5598</v>
       </c>
       <c r="E24">
-        <v>81</v>
-      </c>
-      <c r="G24">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="F24">
+        <v>139.5</v>
       </c>
       <c r="H24">
-        <v>48888.77</v>
+        <v>9897.879999999999</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D25">
-        <v>5258</v>
+        <v>5598</v>
       </c>
       <c r="E25">
-        <v>82</v>
-      </c>
-      <c r="G25">
-        <v>76.83</v>
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>69.90000000000001</v>
       </c>
       <c r="H25">
-        <v>48965.6</v>
+        <v>9827.98</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>5258</v>
+        <v>5598</v>
       </c>
       <c r="E26">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G26">
-        <v>714</v>
+        <v>862.89</v>
       </c>
       <c r="H26">
-        <v>49679.6</v>
+        <v>10690.87</v>
       </c>
       <c r="I26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D27">
-        <v>5258</v>
+        <v>5598</v>
       </c>
       <c r="E27">
-        <v>84</v>
-      </c>
-      <c r="G27">
-        <v>714</v>
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>18.18</v>
       </c>
       <c r="H27">
-        <v>50393.6</v>
+        <v>10672.69</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>26000</v>
       </c>
       <c r="D28">
-        <v>5258</v>
+        <v>5598</v>
       </c>
       <c r="E28">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G28">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="H28">
-        <v>50493.6</v>
+        <v>10672.7</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D29">
-        <v>5258</v>
+        <v>5562</v>
       </c>
       <c r="E29">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="G29">
-        <v>178</v>
+        <v>192.51</v>
       </c>
       <c r="H29">
-        <v>50671.6</v>
+        <v>10865.21</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D30">
-        <v>5258</v>
+        <v>5567</v>
       </c>
       <c r="E30">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>1095</v>
+        <v>28.69</v>
       </c>
       <c r="H30">
-        <v>51766.6</v>
+        <v>10893.9</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1379,25 +1376,25 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>5258</v>
+        <v>5589</v>
       </c>
       <c r="E31">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>714</v>
+        <v>19.64</v>
       </c>
       <c r="H31">
-        <v>52480.6</v>
+        <v>10913.54</v>
       </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1405,883 +1402,857 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>5258</v>
+        <v>5589</v>
       </c>
       <c r="E32">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="G32">
-        <v>100</v>
+        <v>173.07</v>
       </c>
       <c r="H32">
-        <v>52580.6</v>
+        <v>11086.61</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>5258</v>
+        <v>5617</v>
       </c>
       <c r="E33">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="G33">
-        <v>160</v>
+        <v>136.25</v>
       </c>
       <c r="H33">
-        <v>52740.6</v>
+        <v>11222.86</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>5626</v>
+      </c>
+      <c r="E34">
         <v>6</v>
       </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34">
-        <v>5258</v>
-      </c>
-      <c r="E34">
-        <v>91</v>
-      </c>
       <c r="G34">
-        <v>244</v>
+        <v>17.48</v>
       </c>
       <c r="H34">
-        <v>52984.6</v>
+        <v>11240.34</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35">
+        <v>5632</v>
+      </c>
+      <c r="E35">
         <v>6</v>
       </c>
-      <c r="B35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35">
-        <v>5258</v>
-      </c>
-      <c r="E35">
-        <v>92</v>
-      </c>
       <c r="G35">
-        <v>714</v>
+        <v>340.47</v>
       </c>
       <c r="H35">
-        <v>53698.6</v>
+        <v>11580.81</v>
       </c>
       <c r="I35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D36">
-        <v>5258</v>
+        <v>5713</v>
       </c>
       <c r="E36">
-        <v>93</v>
-      </c>
-      <c r="G36">
-        <v>714</v>
+        <v>23</v>
+      </c>
+      <c r="F36">
+        <v>21</v>
       </c>
       <c r="H36">
-        <v>54412.6</v>
+        <v>11559.81</v>
       </c>
       <c r="I36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D37">
-        <v>5258</v>
+        <v>5714</v>
       </c>
       <c r="E37">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>714</v>
+        <v>63.71</v>
       </c>
       <c r="H37">
-        <v>55126.6</v>
+        <v>11623.52</v>
       </c>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D38">
-        <v>5258</v>
+        <v>5722</v>
       </c>
       <c r="E38">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>357</v>
+        <v>1641.26</v>
       </c>
       <c r="H38">
-        <v>55483.6</v>
+        <v>13264.78</v>
       </c>
       <c r="I38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39">
+        <v>5758</v>
+      </c>
+      <c r="E39">
         <v>6</v>
       </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39">
-        <v>5258</v>
-      </c>
-      <c r="E39">
-        <v>96</v>
-      </c>
       <c r="G39">
-        <v>714</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="H39">
-        <v>56197.6</v>
+        <v>13353.57</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D40">
-        <v>5258</v>
+        <v>5765</v>
       </c>
       <c r="E40">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="G40">
-        <v>357</v>
+        <v>139.5</v>
       </c>
       <c r="H40">
-        <v>56554.6</v>
+        <v>13493.07</v>
       </c>
       <c r="I40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D41">
-        <v>5258</v>
+        <v>5765</v>
       </c>
       <c r="E41">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="G41">
-        <v>357</v>
+        <v>19.33</v>
       </c>
       <c r="H41">
-        <v>56911.6</v>
+        <v>13512.4</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D42">
-        <v>5258</v>
+        <v>5867</v>
       </c>
       <c r="E42">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="G42">
-        <v>285.6</v>
+        <v>3329.4</v>
       </c>
       <c r="H42">
-        <v>57197.2</v>
+        <v>16841.8</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D43">
-        <v>5276</v>
+        <v>5900</v>
       </c>
       <c r="E43">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="G43">
-        <v>736.2</v>
+        <v>132.53</v>
       </c>
       <c r="H43">
-        <v>57933.4</v>
+        <v>16974.33</v>
       </c>
       <c r="I43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D44">
-        <v>5276</v>
+        <v>5939</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G44">
-        <v>357</v>
+        <v>1268.13</v>
       </c>
       <c r="H44">
-        <v>58290.4</v>
+        <v>18242.46</v>
       </c>
       <c r="I44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>6009</v>
+      </c>
+      <c r="E45">
         <v>7</v>
       </c>
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45">
-        <v>5314</v>
-      </c>
-      <c r="E45">
-        <v>43</v>
-      </c>
-      <c r="F45">
-        <v>714</v>
+      <c r="G45">
+        <v>520.77</v>
       </c>
       <c r="H45">
-        <v>57576.4</v>
+        <v>18763.23</v>
       </c>
       <c r="I45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D46">
-        <v>5314</v>
+        <v>6037</v>
       </c>
       <c r="E46">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="F46">
-        <v>736.2</v>
+        <v>9393.469999999999</v>
       </c>
       <c r="H46">
-        <v>56840.2</v>
+        <v>9369.76</v>
       </c>
       <c r="I46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D47">
-        <v>5348</v>
+        <v>5964</v>
       </c>
       <c r="E47">
-        <v>56</v>
-      </c>
-      <c r="F47">
-        <v>371.22</v>
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>164.04</v>
       </c>
       <c r="H47">
-        <v>56468.98</v>
+        <v>9533.799999999999</v>
       </c>
       <c r="I47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D48">
-        <v>5351</v>
+        <v>6043</v>
       </c>
       <c r="E48">
-        <v>14</v>
-      </c>
-      <c r="F48">
-        <v>734.76</v>
+        <v>71</v>
+      </c>
+      <c r="G48">
+        <v>192.51</v>
       </c>
       <c r="H48">
-        <v>55734.22</v>
+        <v>9726.309999999999</v>
       </c>
       <c r="I48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D49">
-        <v>5359</v>
+        <v>6043</v>
       </c>
       <c r="E49">
-        <v>33</v>
-      </c>
-      <c r="F49">
-        <v>25</v>
+        <v>74</v>
+      </c>
+      <c r="G49">
+        <v>28.69</v>
       </c>
       <c r="H49">
-        <v>55709.22</v>
+        <v>9755</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D50">
-        <v>5381</v>
+        <v>6085</v>
       </c>
       <c r="E50">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G50">
-        <v>730.2</v>
+        <v>75.05</v>
       </c>
       <c r="H50">
-        <v>56439.42</v>
+        <v>9830.049999999999</v>
       </c>
       <c r="I50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D51">
-        <v>5381</v>
+        <v>6085</v>
       </c>
       <c r="E51">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G51">
-        <v>182.04</v>
+        <v>1201.83</v>
       </c>
       <c r="H51">
-        <v>56621.46</v>
+        <v>11031.88</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D52">
-        <v>5416</v>
+        <v>6085</v>
       </c>
       <c r="E52">
-        <v>13</v>
-      </c>
-      <c r="F52">
-        <v>201</v>
+        <v>53</v>
+      </c>
+      <c r="G52">
+        <v>711.45</v>
       </c>
       <c r="H52">
-        <v>56420.46</v>
+        <v>11743.33</v>
       </c>
       <c r="I52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D53">
-        <v>5416</v>
+        <v>6085</v>
       </c>
       <c r="E53">
-        <v>65</v>
-      </c>
-      <c r="F53">
-        <v>196</v>
+        <v>57</v>
+      </c>
+      <c r="G53">
+        <v>64.18000000000001</v>
       </c>
       <c r="H53">
-        <v>56224.46</v>
+        <v>11807.51</v>
       </c>
       <c r="I53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D54">
-        <v>5385</v>
+        <v>6085</v>
       </c>
       <c r="E54">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="G54">
-        <v>76.59</v>
+        <v>225.07</v>
       </c>
       <c r="H54">
-        <v>56301.05</v>
+        <v>12032.58</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D55">
-        <v>5385</v>
+        <v>6085</v>
       </c>
       <c r="E55">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="G55">
-        <v>89</v>
+        <v>266.6</v>
       </c>
       <c r="H55">
-        <v>56390.05</v>
+        <v>12299.18</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56">
+        <v>6085</v>
+      </c>
+      <c r="E56">
         <v>69</v>
       </c>
-      <c r="D56">
-        <v>5404</v>
-      </c>
-      <c r="E56">
-        <v>68</v>
-      </c>
-      <c r="F56">
-        <v>320</v>
+      <c r="G56">
+        <v>66.84999999999999</v>
       </c>
       <c r="H56">
-        <v>56070.05</v>
+        <v>12366.03</v>
       </c>
       <c r="I56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D57">
-        <v>5404</v>
+        <v>6085</v>
       </c>
       <c r="E57">
-        <v>69</v>
-      </c>
-      <c r="F57">
-        <v>326.84</v>
+        <v>76</v>
+      </c>
+      <c r="G57">
+        <v>392.98</v>
       </c>
       <c r="H57">
-        <v>55743.21</v>
+        <v>12759.01</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D58">
-        <v>5404</v>
+        <v>6085</v>
       </c>
       <c r="E58">
-        <v>70</v>
-      </c>
-      <c r="F58">
-        <v>181.8</v>
+        <v>80</v>
+      </c>
+      <c r="G58">
+        <v>102.3</v>
       </c>
       <c r="H58">
-        <v>55561.41</v>
+        <v>12861.31</v>
       </c>
       <c r="I58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D59">
-        <v>5404</v>
+        <v>6085</v>
       </c>
       <c r="E59">
-        <v>101</v>
-      </c>
-      <c r="F59">
-        <v>1071</v>
+        <v>84</v>
+      </c>
+      <c r="G59">
+        <v>300.16</v>
       </c>
       <c r="H59">
-        <v>54490.41</v>
+        <v>13161.47</v>
       </c>
       <c r="I59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D60">
-        <v>5430</v>
+        <v>6085</v>
       </c>
       <c r="E60">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="G60">
-        <v>624.09</v>
+        <v>257.27</v>
       </c>
       <c r="H60">
-        <v>55114.5</v>
+        <v>13418.74</v>
       </c>
       <c r="I60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D61">
-        <v>5442</v>
+        <v>6085</v>
       </c>
       <c r="E61">
-        <v>42</v>
-      </c>
-      <c r="F61">
-        <v>714</v>
+        <v>91</v>
+      </c>
+      <c r="G61">
+        <v>27.9</v>
       </c>
       <c r="H61">
-        <v>54400.5</v>
+        <v>13446.64</v>
       </c>
       <c r="I61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D62">
-        <v>5442</v>
+        <v>6085</v>
       </c>
       <c r="E62">
-        <v>49</v>
-      </c>
-      <c r="F62">
-        <v>196</v>
+        <v>94</v>
+      </c>
+      <c r="G62">
+        <v>148.24</v>
       </c>
       <c r="H62">
-        <v>54204.5</v>
+        <v>13594.88</v>
       </c>
       <c r="I62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D63">
-        <v>5432</v>
+        <v>6085</v>
       </c>
       <c r="E63">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="G63">
-        <v>286.95</v>
+        <v>13.58</v>
       </c>
       <c r="H63">
-        <v>54491.45</v>
+        <v>13608.46</v>
       </c>
       <c r="I63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64">
-        <v>5432</v>
+        <v>53</v>
       </c>
       <c r="E64">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G64">
-        <v>132</v>
+        <v>340.47</v>
       </c>
       <c r="H64">
-        <v>54623.45</v>
+        <v>13948.93</v>
       </c>
       <c r="I64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65">
-        <v>5432</v>
-      </c>
-      <c r="E65">
-        <v>20</v>
-      </c>
-      <c r="G65">
-        <v>41.39</v>
-      </c>
-      <c r="H65">
-        <v>54664.84</v>
-      </c>
-      <c r="I65" t="s">
-        <v>79</v>
-      </c>
-      <c r="J65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/processed_file.xlsx
+++ b/processed_file.xlsx
@@ -14,210 +14,342 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
-  <si>
-    <t>418-1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="112">
+  <si>
+    <t>1507-3</t>
+  </si>
+  <si>
+    <t>1672-8</t>
+  </si>
+  <si>
+    <t>2130-3</t>
+  </si>
+  <si>
+    <t>1553-3</t>
+  </si>
+  <si>
+    <t>1554-9</t>
+  </si>
+  <si>
+    <t>1559-6</t>
+  </si>
+  <si>
+    <t>1555-4</t>
+  </si>
+  <si>
+    <t>1560-3</t>
+  </si>
+  <si>
+    <t>1568-7</t>
+  </si>
+  <si>
+    <t>1615-6</t>
+  </si>
+  <si>
+    <t>1630-1</t>
+  </si>
+  <si>
+    <t>1650-4</t>
+  </si>
+  <si>
+    <t>1601-8</t>
+  </si>
+  <si>
+    <t>1604-4</t>
+  </si>
+  <si>
+    <t>1642-9</t>
+  </si>
+  <si>
+    <t>1546-3</t>
+  </si>
+  <si>
+    <t>3145-5</t>
+  </si>
+  <si>
+    <t>1550-7</t>
+  </si>
+  <si>
+    <t>2865-0</t>
+  </si>
+  <si>
+    <t>1569-2</t>
+  </si>
+  <si>
+    <t>1591-8</t>
+  </si>
+  <si>
+    <t>74-7</t>
+  </si>
+  <si>
+    <t>1607-0</t>
+  </si>
+  <si>
+    <t>4198-1</t>
+  </si>
+  <si>
+    <t>1-6</t>
   </si>
   <si>
     <t>3099-1</t>
   </si>
   <si>
-    <t>3329-9</t>
-  </si>
-  <si>
-    <t>2230-0</t>
-  </si>
-  <si>
-    <t>3896-3</t>
-  </si>
-  <si>
-    <t>3961-4</t>
-  </si>
-  <si>
-    <t>3080-6</t>
-  </si>
-  <si>
-    <t>3927-1</t>
-  </si>
-  <si>
-    <t>4106-3</t>
-  </si>
-  <si>
-    <t>3336-9</t>
-  </si>
-  <si>
-    <t>3254-3</t>
-  </si>
-  <si>
-    <t>2027-8</t>
-  </si>
-  <si>
-    <t>243-7</t>
-  </si>
-  <si>
-    <t>3219-5</t>
-  </si>
-  <si>
-    <t>303-9</t>
-  </si>
-  <si>
-    <t>3622-2</t>
-  </si>
-  <si>
-    <t>373-3</t>
-  </si>
-  <si>
-    <t>2028-3</t>
-  </si>
-  <si>
-    <t>413-2</t>
-  </si>
-  <si>
-    <t>3212-7</t>
-  </si>
-  <si>
-    <t>Fornecedores Diversos</t>
+    <t>Tarifas Cartões Débito/Crédito</t>
+  </si>
+  <si>
+    <t>Multa e Juros s/Mens. e Taxas</t>
+  </si>
+  <si>
+    <t>Cartão Cielo Bradesco</t>
+  </si>
+  <si>
+    <t>Mensalidades Série B</t>
+  </si>
+  <si>
+    <t>Mensalidades Série C</t>
+  </si>
+  <si>
+    <t>Mensalidades C Ex. Ant.</t>
+  </si>
+  <si>
+    <t>Mensalidades Aspirante</t>
+  </si>
+  <si>
+    <t>Mensalidades Asp. Ex. Ant.</t>
+  </si>
+  <si>
+    <t>Taxa Ausente Série B</t>
+  </si>
+  <si>
+    <t>Escolinhas de Natação</t>
+  </si>
+  <si>
+    <t>Personal Trainer</t>
+  </si>
+  <si>
+    <t>Escolinhas de Esgrima</t>
+  </si>
+  <si>
+    <t>Escolinha de Futsal</t>
+  </si>
+  <si>
+    <t>Escolinhas de Tênis - S.B.S.A.</t>
+  </si>
+  <si>
+    <t>M.E.C. Método Equilíbrio Corp.</t>
+  </si>
+  <si>
+    <t>Sauna Masculina</t>
+  </si>
+  <si>
+    <t>Bar da Sauna Masculina</t>
+  </si>
+  <si>
+    <t>Sauna Feminina</t>
+  </si>
+  <si>
+    <t>Clubinho</t>
+  </si>
+  <si>
+    <t>Taxa Ausente Série C</t>
+  </si>
+  <si>
+    <t>Eventos Especiais/Shows</t>
+  </si>
+  <si>
+    <t>Documentos a Classificar</t>
+  </si>
+  <si>
+    <t>Aulas - Sede Lucius Smythe</t>
+  </si>
+  <si>
+    <t>Hatha Yoga - Viviana Haluch</t>
+  </si>
+  <si>
+    <t>Caixa Geral</t>
   </si>
   <si>
     <t>Banco Bradesco 1989-5</t>
   </si>
   <si>
-    <t>Wagner Luiz de Almeida</t>
-  </si>
-  <si>
-    <t>Janjao (Andrea Fátima)</t>
-  </si>
-  <si>
-    <t>Farmacia Santa Maria</t>
-  </si>
-  <si>
-    <t>G Neumann Bradock Serviços</t>
-  </si>
-  <si>
-    <t>Bradock Serv.Seg.Vigilância</t>
-  </si>
-  <si>
-    <t>Expresso Distr. Bebidas</t>
-  </si>
-  <si>
-    <t>Irmãos Hollveg</t>
-  </si>
-  <si>
-    <t>Super G Dist.Prod.Alim.</t>
-  </si>
-  <si>
-    <t>Armazem do Aço</t>
-  </si>
-  <si>
-    <t>Araumáquinas Máq.Agrícolas</t>
-  </si>
-  <si>
-    <t>ECAD Escritório Central Arrec.</t>
-  </si>
-  <si>
-    <t>HS Floresta e Jardim</t>
-  </si>
-  <si>
-    <t>L. L. Reprod. Técnicas Ltda</t>
-  </si>
-  <si>
-    <t>Strobeletro Ltda</t>
-  </si>
-  <si>
-    <t>Lojas Colombo S/A</t>
-  </si>
-  <si>
-    <t>TRANSTOMAZ Transp.Rodov.Carga</t>
-  </si>
-  <si>
-    <t>Eletro Coml. Reymaster Ltda</t>
-  </si>
-  <si>
-    <t>CBN Dist.Prod.Alim.Logis.</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.71  PREUSS E MIRANDA EVENTOS LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.190  WAGNER LUIZ DE ALMEIDA - ME</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.212  POLISOLAR LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.230  ANDREA FATIMA DE FREITAS ME</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.252  ASSOC.OFICIAIS DE ARBITRAGEM DE FUTSAL DO PR</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.341  FARMACIA SANTA MARIA DE UMUARAMA LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.509  G NEUMANN BRADOCK SERVIÇOS</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.989  BRADOCK SERV.SEG.VIGILANCIA LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.3161  AGENCIA LA IMAGEM DE FOTOGRAFIAS LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.4737  EXPRESSO DIST. DE BEBIDAS LTDA ME</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.7043  AZOB COMERCIAL LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.11330  IRMAOS HOLLVEG LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.17168  SUPER G DISTR.PROD.ALIMENTICIOS LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.17169  SUPER G DISTR.PROD.ALIMENTICIOS LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.18191  ARMAZEM DO ACO LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.26201 ARAUMAQUINAS MANUT. MAQUINAS LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.28357  PANTHERA LEO EQUIPAMENTOS LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.32803 ESCR.CENTRAL ARREC.DISTR.- ECAD</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.42679  LUAT COMERCIO DE COMPRESSORES E PECAS LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.56470  HS FLORESTA E JARDIM COM.MAQUINAS LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.101909  L L REPRODUCOES TECNICAS LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.202965 STROBELETRO COM.MAT.ELETRICO LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.328031 ESCR.CENTRAL ARREC.DISTR.- ECAD</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.328032 ESCR.CENTRAL ARREC.DISTR.- ECAD</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.485335  LOJAS COLOMBO S/A COM.UTIL.DOM.</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.509956  TRANS TOMAZ TRANSP.RODOV.CARGAS LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.718970  ELETRO COM. REYMASTER LTDA</t>
-  </si>
-  <si>
-    <t>N/PGTO. NF. N.2876700  CBN DISTRIBUIDORA</t>
+    <t>N/PGTO. TARIFA COBRANÇA CARTÕES CIELO/REDE</t>
+  </si>
+  <si>
+    <t>VLR. REC. JUROS MENSALIDADES/OUTROS CARTÃO CIELO/REDE</t>
+  </si>
+  <si>
+    <t>VLR. VENDA CARTÃO CIELO VCTO.22/02</t>
+  </si>
+  <si>
+    <t>VLR. REC. MENSALIDADES/OUTROS CARTÕES CIELO/REDE CAIXA D.A.</t>
+  </si>
+  <si>
+    <t>VLR. REC. MENSALIDADES/OUTROS CARTÕES CIELO/REDE CAIXA D.A.3149075</t>
+  </si>
+  <si>
+    <t>VLR. REC. MENSALIDADES/OUTROS CARTÕES CIELO/REDE CAIXA D.A.3149010</t>
+  </si>
+  <si>
+    <t>VLR. REC. MENSALIDADES/OUTROS CARTÕES CIELO/REDE CAIXA D.A.3149009</t>
+  </si>
+  <si>
+    <t>VLR. REC. MENSALIDADES/OUTROS CARTÕES CIELO/REDE CAIXA D.A.3149028</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3145572 C-8297 9 FELIPE SAPORITI SALVI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147622 B-674 6 ANTONELLA RODRIGUES BARETTA</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3141147 B-1124 8 VALENTINA S. DE ALENCAR</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147636 C-1076 8 LUIZA CAVALCANTI RAZERA BREGINSKI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3141335 C-3680 7 MATHEUS KALLUF COMELLI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3141337 C-5221 6 ALEXANDRE WEBER BOGUSZEWSKI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3146572 B-2650 1 ROSANGELA BACHTZEN DE MIRANDA</t>
+  </si>
+  <si>
+    <t>VLR. RECEBIDO D.A.3149046</t>
+  </si>
+  <si>
+    <t>VLR. RECEBIDO D.A.3149045/3149048</t>
+  </si>
+  <si>
+    <t>VLR. RECEBIDO D.A.3148988/3148989/3148990</t>
+  </si>
+  <si>
+    <t>VLR. RECEBIDO D.A.3149047</t>
+  </si>
+  <si>
+    <t>VLR. REC. MENSALIDADES/OUTROS CARTÕES CIELO/REDE CAIXA D.A.3060033/3149078</t>
+  </si>
+  <si>
+    <t>VLR. REC. MENSALIDADES/OUTROS CARTÕES CIELO/REDE CAIXA D.A.3149067/3149066</t>
+  </si>
+  <si>
+    <t>VLR. REC. MENSALIDADES/OUTROS CARTÕES CIELO/REDE CAIXA D.A.3149068/3149079</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147464/3147465/3147466/314766 0</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147468</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147632</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3141810 B-3437 5 JULIANO MARCONDES PAGANINI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3141811 B-3437 5 JULIANO MARCONDES PAGANINI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3141812 B-3437 5 JULIANO MARCONDES PAGANINI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3141813 B-3437 5 JULIANO MARCONDES PAGANINI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3141814 B-3437 5 JULIANO MARCONDES PAGANINI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3141815 B-3437 5 JULIANO MARCONDES PAGANINI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3141816 B-3437 5 JULIANO MARCONDES PAGANINI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3141817 B-3437 5 JULIANO MARCONDES PAGANINI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3141818 B-3437 5 JULIANO MARCONDES PAGANINI</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147470</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3146332/3146333/3146338</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.</t>
+  </si>
+  <si>
+    <t>VLR. REC. MENSALIDADES/OUTROS CARTÕES CIELO/REDE CAIXA D.A.3149000</t>
+  </si>
+  <si>
+    <t>VLR. REC. MENSALIDADES/OUTROS CARTÕES CIELO/REDE CAIXA D.A.3149001</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147602 B-908 7 ANA BEATRIZ B M MASCARENHAS</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147605 B-2941 2 DJUNA HANNAH P BERGAMO</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147603 B-3243 1 BARBARA HELOISA BREIDENBACH PUPIM</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147607 B-5176 2 ILSE OLIVIA MARQUES PINTO</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147610 B-5754 4 JULIANA LEME BRAZ MENDONCA</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147606 C-766 6 GIOVANNA MACHADO PEREIRA</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147604 C-4521 4 CLAUDIA GUIMARAES PINTO</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147608 C-4697 2 JACQUELINE ANDREA GLASER</t>
+  </si>
+  <si>
+    <t>N/PGTO. D.A.3147611 C-8491 3 MARCELO AUGUSTO DE ARAUJO CAMPELO</t>
+  </si>
+  <si>
+    <t>RECEBIMENTOS N/DATA</t>
+  </si>
+  <si>
+    <t>N/PGTO. VIA BRADESCO REF. DEVOLUÇOES DIVERSAS BAIXADAS PELO CAIXA</t>
+  </si>
+  <si>
+    <t>N/PGTO. TARIFA COBRANÇA PIX CIELO</t>
+  </si>
+  <si>
+    <t>VLR. REC. MENSALIDADES/OUTROS CARTÕES BCO.BRADESCO22/01</t>
+  </si>
+  <si>
+    <t>VLR. VENDA CARTÃO CIELO VCTO.22/02 3X</t>
+  </si>
+  <si>
+    <t>VLR. VENDA CARTÃO CIELO VCTO.22/02 12X</t>
+  </si>
+  <si>
+    <t>VLR. VENDA SAUNA FEMININA CARTÃO CIELO/REDE VCTO.21/02</t>
+  </si>
+  <si>
+    <t>VLR. REC. VENDA SAUNA FEMININA CARTÕES CIELO BRADESCO21/01</t>
+  </si>
+  <si>
+    <t>VLR. REC. VENDA PIX CIELO 21/01 SF</t>
+  </si>
+  <si>
+    <t>VLR. VENDA SAUNA MASCULINA CARTÃO CIELO/REDE VCTO.21/02</t>
+  </si>
+  <si>
+    <t>VLR. REC. SAUNA MASCULINA CARTÕES CIELO BRADESCO21/01</t>
+  </si>
+  <si>
+    <t>VLR. REC. VENDA PIX CIELO 21/01 SM</t>
   </si>
 </sst>
 </file>
@@ -553,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,22 +696,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E1">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G1">
-        <v>1800</v>
+        <v>298.94</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -587,22 +719,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H2">
-        <v>1800</v>
+        <v>174.03</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -610,22 +742,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="G3">
-        <v>4860</v>
+        <v>14879.39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -633,22 +765,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H4">
-        <v>4860</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -656,22 +788,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5">
-        <v>2480</v>
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>1528</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -679,22 +811,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H6">
-        <v>2480</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -702,22 +834,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7">
-        <v>4680</v>
+        <v>55</v>
+      </c>
+      <c r="H7">
+        <v>1069.6</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -725,22 +857,22 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="H8">
-        <v>4680</v>
+        <v>571.2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -748,22 +880,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E9">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9">
-        <v>13040</v>
+        <v>55</v>
+      </c>
+      <c r="H9">
+        <v>4354.8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -771,22 +903,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H10">
-        <v>13040</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -794,22 +926,22 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11">
-        <v>1724.16</v>
+        <v>55</v>
+      </c>
+      <c r="H11">
+        <v>3629</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -817,22 +949,22 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H12">
-        <v>1724.16</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -840,22 +972,22 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13">
-        <v>1050.2</v>
+        <v>57</v>
+      </c>
+      <c r="H13">
+        <v>995</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -863,22 +995,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H14">
-        <v>1050.2</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -886,22 +1018,22 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E15">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15">
-        <v>258.1</v>
+        <v>59</v>
+      </c>
+      <c r="H15">
+        <v>1779</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -909,22 +1041,22 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16">
-        <v>258.1</v>
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>1118.48</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -932,22 +1064,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E17">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="G17">
-        <v>2450</v>
+        <v>1435.4</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -955,22 +1087,22 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E18">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18">
-        <v>2450</v>
+        <v>62</v>
+      </c>
+      <c r="G18">
+        <v>1990</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -978,22 +1110,22 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E19">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="G19">
-        <v>94.3</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1001,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E20">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20">
-        <v>94.3</v>
+        <v>64</v>
+      </c>
+      <c r="G20">
+        <v>1440.1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1024,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C21" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E21">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G21">
-        <v>507.7</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1047,22 +1179,22 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E22">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22">
-        <v>507.7</v>
+        <v>66</v>
+      </c>
+      <c r="G22">
+        <v>170.7</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1070,22 +1202,22 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E23">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23">
-        <v>890</v>
+        <v>67</v>
+      </c>
+      <c r="H23">
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1093,22 +1225,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E24">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H24">
-        <v>890</v>
+        <v>2473.5</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1116,22 +1248,22 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E25">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25">
-        <v>543.2</v>
+        <v>69</v>
+      </c>
+      <c r="H25">
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1139,22 +1271,22 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E26">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H26">
-        <v>543.2</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1162,22 +1294,22 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E27">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27">
-        <v>143.64</v>
+        <v>71</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1185,22 +1317,22 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="E28">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="H28">
-        <v>143.64</v>
+        <v>41.8</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1208,22 +1340,22 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E29">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29">
-        <v>688.4</v>
+        <v>73</v>
+      </c>
+      <c r="H29">
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1231,22 +1363,22 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30">
-        <v>688.4</v>
+        <v>74</v>
+      </c>
+      <c r="G30">
+        <v>13828.4</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1254,22 +1386,22 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E31">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G31">
-        <v>705.12</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1277,22 +1409,22 @@
         <v>32</v>
       </c>
       <c r="B32" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32">
-        <v>705.12</v>
+        <v>76</v>
+      </c>
+      <c r="G32">
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1300,22 +1432,22 @@
         <v>33</v>
       </c>
       <c r="B33" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C33" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E33">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="G33">
-        <v>293.99</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1323,22 +1455,22 @@
         <v>34</v>
       </c>
       <c r="B34" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34">
-        <v>293.99</v>
+        <v>78</v>
+      </c>
+      <c r="G34">
+        <v>460</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1346,22 +1478,22 @@
         <v>35</v>
       </c>
       <c r="B35" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="E35">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="G35">
-        <v>3424.75</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1369,22 +1501,22 @@
         <v>36</v>
       </c>
       <c r="B36" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E36">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36">
-        <v>3424.75</v>
+        <v>80</v>
+      </c>
+      <c r="G36">
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1392,22 +1524,22 @@
         <v>37</v>
       </c>
       <c r="B37" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C37" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E37">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G37">
-        <v>5172.6</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1415,22 +1547,22 @@
         <v>38</v>
       </c>
       <c r="B38" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E38">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38">
-        <v>5172.6</v>
+        <v>82</v>
+      </c>
+      <c r="G38">
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1438,22 +1570,22 @@
         <v>39</v>
       </c>
       <c r="B39" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E39">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G39">
-        <v>385</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1461,22 +1593,22 @@
         <v>40</v>
       </c>
       <c r="B40" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="E40">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40">
-        <v>385</v>
+        <v>84</v>
+      </c>
+      <c r="G40">
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1484,22 +1616,22 @@
         <v>41</v>
       </c>
       <c r="B41" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C41" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E41">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="G41">
-        <v>1149.6</v>
+        <v>760</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1507,22 +1639,22 @@
         <v>42</v>
       </c>
       <c r="B42" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E42">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42">
-        <v>1149.6</v>
+        <v>86</v>
+      </c>
+      <c r="G42">
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1530,22 +1662,22 @@
         <v>43</v>
       </c>
       <c r="B43" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E43">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="G43">
-        <v>375.1</v>
+        <v>624</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1553,22 +1685,22 @@
         <v>44</v>
       </c>
       <c r="B44" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E44">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
-      </c>
-      <c r="H44">
-        <v>375.1</v>
+        <v>88</v>
+      </c>
+      <c r="G44">
+        <v>83.63</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1576,22 +1708,22 @@
         <v>45</v>
       </c>
       <c r="B45" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E45">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45">
-        <v>5283.9</v>
+        <v>89</v>
+      </c>
+      <c r="H45">
+        <v>64.5</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1599,22 +1731,22 @@
         <v>46</v>
       </c>
       <c r="B46" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E46">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="H46">
-        <v>5283.9</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1622,22 +1754,22 @@
         <v>47</v>
       </c>
       <c r="B47" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D47" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E47">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="G47">
-        <v>684.95</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1645,22 +1777,22 @@
         <v>48</v>
       </c>
       <c r="B48" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E48">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
-      </c>
-      <c r="H48">
-        <v>684.95</v>
+        <v>92</v>
+      </c>
+      <c r="G48">
+        <v>34.4</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1668,22 +1800,22 @@
         <v>49</v>
       </c>
       <c r="B49" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E49">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G49">
-        <v>2949</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1691,22 +1823,22 @@
         <v>50</v>
       </c>
       <c r="B50" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E50">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
-      </c>
-      <c r="H50">
-        <v>2949</v>
+        <v>94</v>
+      </c>
+      <c r="G50">
+        <v>17.2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1714,22 +1846,22 @@
         <v>51</v>
       </c>
       <c r="B51" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E51">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="G51">
-        <v>103.07</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1737,22 +1869,22 @@
         <v>52</v>
       </c>
       <c r="B52" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E52">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
-      </c>
-      <c r="H52">
-        <v>103.07</v>
+        <v>96</v>
+      </c>
+      <c r="G52">
+        <v>17.2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1760,22 +1892,22 @@
         <v>53</v>
       </c>
       <c r="B53" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E53">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="G53">
-        <v>2000.8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1783,22 +1915,22 @@
         <v>54</v>
       </c>
       <c r="B54" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E54">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="H54">
-        <v>2000.8</v>
+        <v>98</v>
+      </c>
+      <c r="G54">
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1806,22 +1938,22 @@
         <v>55</v>
       </c>
       <c r="B55" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E55">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="G55">
-        <v>477.72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1829,22 +1961,505 @@
         <v>56</v>
       </c>
       <c r="B56" s="1">
-        <v>45660</v>
+        <v>45679</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E56">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57">
+        <v>400</v>
+      </c>
+      <c r="F57" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57">
+        <v>30090.91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58">
+        <v>420</v>
+      </c>
+      <c r="F58" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59">
+        <v>254</v>
+      </c>
+      <c r="F59" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59">
+        <v>419.58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E60">
+        <v>170</v>
+      </c>
+      <c r="F60" t="s">
+        <v>104</v>
+      </c>
+      <c r="G60">
+        <v>970.3099999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>170</v>
+      </c>
+      <c r="F61" t="s">
+        <v>105</v>
+      </c>
+      <c r="G61">
+        <v>3715.12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62">
+        <v>407</v>
+      </c>
+      <c r="F62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G62">
+        <v>89.20999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63">
+        <v>397</v>
+      </c>
+      <c r="F63" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63">
+        <v>19.82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+      <c r="E64">
+        <v>399</v>
+      </c>
+      <c r="F64" t="s">
+        <v>108</v>
+      </c>
+      <c r="G64">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65">
+        <v>399</v>
+      </c>
+      <c r="F65" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E66">
+        <v>399</v>
+      </c>
+      <c r="F66" t="s">
+        <v>108</v>
+      </c>
+      <c r="G66">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
         <v>67</v>
       </c>
-      <c r="H56">
-        <v>477.72</v>
+      <c r="B67" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>51</v>
+      </c>
+      <c r="E67">
+        <v>399</v>
+      </c>
+      <c r="F67" t="s">
+        <v>108</v>
+      </c>
+      <c r="G67">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68">
+        <v>167</v>
+      </c>
+      <c r="F68" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68">
+        <v>1903.88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69">
+        <v>256</v>
+      </c>
+      <c r="F69" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69">
+        <v>1038.18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70">
+        <v>399</v>
+      </c>
+      <c r="F70" t="s">
+        <v>111</v>
+      </c>
+      <c r="G70">
+        <v>9.960000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71">
+        <v>399</v>
+      </c>
+      <c r="F71" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C72" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72">
+        <v>399</v>
+      </c>
+      <c r="F72" t="s">
+        <v>111</v>
+      </c>
+      <c r="G72">
+        <v>12.45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73">
+        <v>399</v>
+      </c>
+      <c r="F73" t="s">
+        <v>111</v>
+      </c>
+      <c r="G73">
+        <v>15.93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" t="s">
+        <v>51</v>
+      </c>
+      <c r="E74">
+        <v>399</v>
+      </c>
+      <c r="F74" t="s">
+        <v>111</v>
+      </c>
+      <c r="G74">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75">
+        <v>399</v>
+      </c>
+      <c r="F75" t="s">
+        <v>111</v>
+      </c>
+      <c r="G75">
+        <v>25.89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>51</v>
+      </c>
+      <c r="E76">
+        <v>399</v>
+      </c>
+      <c r="F76" t="s">
+        <v>111</v>
+      </c>
+      <c r="G76">
+        <v>52.78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45679</v>
+      </c>
+      <c r="C77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77">
+        <v>399</v>
+      </c>
+      <c r="F77" t="s">
+        <v>111</v>
+      </c>
+      <c r="G77">
+        <v>35.35</v>
       </c>
     </row>
   </sheetData>
